--- a/xlsx/country_comparison/split_many_positive.xlsx
+++ b/xlsx/country_comparison/split_many_positive.xlsx
@@ -458,34 +458,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.927819853294632</v>
+        <v>0.962095908921075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.988130469928177</v>
+        <v>0.943468488752845</v>
       </c>
       <c r="D2" t="n">
-        <v>0.918663119124173</v>
+        <v>0.958543849693161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.816326530612245</v>
+        <v>0.904689020547777</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.934750639002764</v>
       </c>
       <c r="G2" t="n">
-        <v>0.967733291497956</v>
+        <v>0.955991506348781</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.982428251208187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.989517568143633</v>
+        <v>0.937994012723559</v>
       </c>
       <c r="K2" t="n">
-        <v>0.98062559696491</v>
+        <v>0.913910514985256</v>
       </c>
     </row>
     <row r="3">
@@ -493,34 +493,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.991907351637713</v>
+        <v>0.970682708916192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99255258381609</v>
+        <v>0.95378795870811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.979648717535564</v>
+        <v>0.980314780569687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.966887417218543</v>
+        <v>0.929718545383539</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.988541720634019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.981473274303679</v>
+        <v>0.986056404682387</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.992838921600975</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.973899086233122</v>
+        <v>0.925700213547707</v>
       </c>
       <c r="K3" t="n">
-        <v>0.986819797712219</v>
+        <v>0.963212985438266</v>
       </c>
     </row>
     <row r="4">
@@ -528,34 +528,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.993517700261615</v>
+        <v>0.961081198456661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.913771465678086</v>
+        <v>0.925339073741774</v>
       </c>
       <c r="D4" t="n">
-        <v>0.908750090610259</v>
+        <v>0.893074037054505</v>
       </c>
       <c r="E4" t="n">
-        <v>0.878640776699029</v>
+        <v>0.837058394612536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.947313805087751</v>
+        <v>0.968863611394569</v>
       </c>
       <c r="G4" t="n">
-        <v>0.983719856252984</v>
+        <v>0.987664944908553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.729203451282286</v>
+        <v>0.84521526057266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.631814466837929</v>
+        <v>0.646014612995477</v>
       </c>
       <c r="J4" t="n">
-        <v>0.877776581815248</v>
+        <v>0.936449508472677</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.808083502504881</v>
       </c>
     </row>
     <row r="5">
@@ -563,34 +563,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.896037080437516</v>
+        <v>0.917634593535688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.936883706065056</v>
+        <v>0.895990718815425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.865014131012542</v>
+        <v>0.978768570129222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
+        <v>0.828760505533314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.964394224311632</v>
+        <v>0.900508649159009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.984565223476097</v>
+        <v>0.98750342060006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.960980959888497</v>
+        <v>0.960936429498363</v>
       </c>
       <c r="I5" t="n">
-        <v>0.922620158415832</v>
+        <v>0.835920532483089</v>
       </c>
       <c r="J5" t="n">
-        <v>0.976042969447188</v>
+        <v>0.920265069831952</v>
       </c>
       <c r="K5" t="n">
-        <v>0.970488189590372</v>
+        <v>0.917768040241635</v>
       </c>
     </row>
     <row r="6">
@@ -598,34 +598,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.952841156489122</v>
+        <v>0.960843442781984</v>
       </c>
       <c r="C6" t="n">
-        <v>0.920375017327372</v>
+        <v>0.907709157104128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.94174191855062</v>
+        <v>0.976501720223574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.798657718120805</v>
+        <v>0.801285825387084</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.942526845527327</v>
       </c>
       <c r="G6" t="n">
-        <v>0.981665824219779</v>
+        <v>0.969164882533091</v>
       </c>
       <c r="H6" t="n">
-        <v>0.992182837566013</v>
+        <v>0.987572543837027</v>
       </c>
       <c r="I6" t="n">
-        <v>0.955856863830382</v>
+        <v>0.880078890676684</v>
       </c>
       <c r="J6" t="n">
-        <v>0.967637809050154</v>
+        <v>0.948084016263654</v>
       </c>
       <c r="K6" t="n">
-        <v>0.972226356122585</v>
+        <v>0.835168264183706</v>
       </c>
     </row>
     <row r="7">
@@ -633,34 +633,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.860188131215875</v>
+        <v>0.906271264721132</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.966529153321176</v>
       </c>
       <c r="D7" t="n">
-        <v>0.892950913536863</v>
+        <v>0.969894608427084</v>
       </c>
       <c r="E7" t="n">
-        <v>0.954954954954955</v>
+        <v>0.915853731438831</v>
       </c>
       <c r="F7" t="n">
-        <v>0.957872803405452</v>
+        <v>0.929479648475556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.948555550943272</v>
+        <v>0.935452579776399</v>
       </c>
       <c r="H7" t="n">
-        <v>0.925433283635943</v>
+        <v>0.966598606472107</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.992160566916696</v>
       </c>
       <c r="J7" t="n">
-        <v>0.940164140754123</v>
+        <v>0.936246144704088</v>
       </c>
       <c r="K7" t="n">
-        <v>0.533430294738742</v>
+        <v>0.84165328655172</v>
       </c>
     </row>
     <row r="8">
@@ -668,34 +668,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.857622948661525</v>
+        <v>0.903597357978442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.916883326915699</v>
+        <v>0.872967879332759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.967681161492758</v>
+        <v>0.958778261722943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.884146341463415</v>
+        <v>0.909660725647461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.641777063311283</v>
+        <v>0.866380311557339</v>
       </c>
       <c r="G8" t="n">
-        <v>0.981952844943002</v>
+        <v>0.969369750996766</v>
       </c>
       <c r="H8" t="n">
-        <v>0.900704656428093</v>
+        <v>0.96338762150664</v>
       </c>
       <c r="I8" t="n">
-        <v>0.991105463493501</v>
+        <v>0.976002089429194</v>
       </c>
       <c r="J8" t="n">
-        <v>0.915978138746803</v>
+        <v>0.908384102670175</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.866134553449636</v>
       </c>
     </row>
     <row r="9">
@@ -703,34 +703,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.892934811473099</v>
+        <v>0.906393803167937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.991797324563762</v>
+        <v>0.980150269631008</v>
       </c>
       <c r="D9" t="n">
-        <v>0.977126354926383</v>
+        <v>0.981426074806519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.959183673469388</v>
+        <v>0.923751151350004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.966303576124388</v>
+        <v>0.971065340151618</v>
       </c>
       <c r="G9" t="n">
-        <v>0.962907163870446</v>
+        <v>0.93885890499541</v>
       </c>
       <c r="H9" t="n">
-        <v>0.974849857723609</v>
+        <v>0.988033201521084</v>
       </c>
       <c r="I9" t="n">
-        <v>0.956824782143144</v>
+        <v>0.917734299334098</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.964540194934968</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.972823223828002</v>
       </c>
     </row>
     <row r="10">
@@ -738,34 +738,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.869104744234994</v>
+        <v>0.89344397875683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.909241967461662</v>
+        <v>0.885476629879587</v>
       </c>
       <c r="D10" t="n">
-        <v>0.959333124392467</v>
+        <v>0.927075185730931</v>
       </c>
       <c r="E10" t="n">
-        <v>0.968354430379747</v>
+        <v>0.912494084865791</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.948982948535976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.976983571964941</v>
+        <v>0.965871587066616</v>
       </c>
       <c r="H10" t="n">
-        <v>0.763087933077087</v>
+        <v>0.879342598945703</v>
       </c>
       <c r="I10" t="n">
-        <v>0.920544562074226</v>
+        <v>0.931925560215443</v>
       </c>
       <c r="J10" t="n">
-        <v>0.943585287087562</v>
+        <v>0.885498393674896</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.896003561864462</v>
       </c>
     </row>
     <row r="11">
@@ -773,34 +773,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.877415709933137</v>
+        <v>0.888641096202881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.957291558117813</v>
+        <v>0.892113706487357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.988097596197646</v>
+        <v>0.977318817269447</v>
       </c>
       <c r="E11" t="n">
-        <v>0.885496183206107</v>
+        <v>0.783080258844413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.484903110529469</v>
+        <v>0.916882566529653</v>
       </c>
       <c r="G11" t="n">
-        <v>0.996640819716561</v>
+        <v>0.985213759230302</v>
       </c>
       <c r="H11" t="n">
-        <v>0.93817520123759</v>
+        <v>0.928887127215644</v>
       </c>
       <c r="I11" t="n">
-        <v>0.750279705188442</v>
+        <v>0.587306428613404</v>
       </c>
       <c r="J11" t="n">
-        <v>0.739272459216952</v>
+        <v>0.81507351291549</v>
       </c>
       <c r="K11" t="n">
-        <v>0.766937369681362</v>
+        <v>0.803554614381469</v>
       </c>
     </row>
     <row r="12">
@@ -808,34 +808,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.905073440373258</v>
+        <v>0.907460692971717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.909869212194118</v>
+        <v>0.903889809294864</v>
       </c>
       <c r="D12" t="n">
-        <v>0.936386700219393</v>
+        <v>0.894346853603748</v>
       </c>
       <c r="E12" t="n">
-        <v>0.923076923076923</v>
+        <v>0.843667290184157</v>
       </c>
       <c r="F12" t="n">
-        <v>0.544804875592146</v>
+        <v>0.884769338104477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.967853630574958</v>
+        <v>0.960525487032748</v>
       </c>
       <c r="H12" t="n">
-        <v>0.930690048966997</v>
+        <v>0.961468423232594</v>
       </c>
       <c r="I12" t="n">
-        <v>0.989862604009986</v>
+        <v>0.899790770386185</v>
       </c>
       <c r="J12" t="n">
-        <v>0.889725485358462</v>
+        <v>0.886889617946456</v>
       </c>
       <c r="K12" t="n">
-        <v>0.907914498605939</v>
+        <v>0.794861607369954</v>
       </c>
     </row>
     <row r="13">
@@ -843,34 +843,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.846214364022596</v>
+        <v>0.872074564713608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.949246343824657</v>
+        <v>0.880160454574409</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.963578880090825</v>
       </c>
       <c r="E13" t="n">
-        <v>0.826086956521739</v>
+        <v>0.862337106131045</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.915042653921643</v>
       </c>
       <c r="G13" t="n">
-        <v>0.983271080792664</v>
+        <v>0.983212292573018</v>
       </c>
       <c r="H13" t="n">
-        <v>0.971033001484937</v>
+        <v>0.969797438269258</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.920286057896182</v>
       </c>
       <c r="J13" t="n">
-        <v>0.814467957089603</v>
+        <v>0.795695654520004</v>
       </c>
       <c r="K13" t="n">
-        <v>0.987491908044791</v>
+        <v>0.881859286007646</v>
       </c>
     </row>
     <row r="14">
@@ -878,34 +878,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.966574599494433</v>
+        <v>0.906804301639464</v>
       </c>
       <c r="C14" t="n">
-        <v>0.977233222324842</v>
+        <v>0.9468046218946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.95969870629235</v>
+        <v>0.967952806643789</v>
       </c>
       <c r="E14" t="n">
-        <v>0.831168831168831</v>
+        <v>0.835983711619876</v>
       </c>
       <c r="F14" t="n">
-        <v>0.60318064500564</v>
+        <v>0.872602742679419</v>
       </c>
       <c r="G14" t="n">
-        <v>0.95459218467583</v>
+        <v>0.951811795218071</v>
       </c>
       <c r="H14" t="n">
-        <v>0.880841771195738</v>
+        <v>0.924420372603302</v>
       </c>
       <c r="I14" t="n">
-        <v>0.737271781398252</v>
+        <v>0.630407048102517</v>
       </c>
       <c r="J14" t="n">
-        <v>0.915579698077004</v>
+        <v>0.894129222943196</v>
       </c>
       <c r="K14" t="n">
-        <v>0.884696766845789</v>
+        <v>0.913515090650987</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_positive.xlsx
+++ b/xlsx/country_comparison/split_many_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,39 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Renewable energy and
+infrastructure to cope with climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Loss and Damage Fund (to
+rebuild after climate disasters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Forestation and biodiversity projects</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic: Education and Research</t>
@@ -73,20 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Domestic: Income tax reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Renewable energy and
-infrastructure to cope with climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Loss and Damage Fund (to
-rebuild after climate disasters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Forestation and biodiversity projects</t>
   </si>
 </sst>
 </file>
@@ -452,460 +458,544 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.962095908921075</v>
+        <v>0.86819559320201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.943468488752845</v>
+        <v>0.9009114656142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.958543849693161</v>
+        <v>0.886361198970453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.904689020547777</v>
+        <v>0.898916610888067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.934750639002764</v>
+        <v>0.959414806953055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.955991506348781</v>
+        <v>0.905622417392269</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.928887173273317</v>
       </c>
       <c r="I2" t="n">
-        <v>0.982428251208187</v>
+        <v>0.853538915866408</v>
       </c>
       <c r="J2" t="n">
-        <v>0.937994012723559</v>
+        <v>0.888485251655774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.913910514985256</v>
+        <v>0.794353909933474</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.985662647490559</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.854261619735472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.970682708916192</v>
+        <v>0.887416728635225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.95378795870811</v>
+        <v>0.912390601327414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.980314780569687</v>
+        <v>0.908187451930824</v>
       </c>
       <c r="E3" t="n">
-        <v>0.929718545383539</v>
+        <v>0.923779326655355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.988541720634019</v>
+        <v>0.919552063706348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.986056404682387</v>
+        <v>0.905000487502065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.992838921600975</v>
+        <v>0.957757555271109</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.904554003032366</v>
       </c>
       <c r="J3" t="n">
-        <v>0.925700213547707</v>
+        <v>0.832649399963089</v>
       </c>
       <c r="K3" t="n">
-        <v>0.963212985438266</v>
+        <v>0.845694943055003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.963896373943999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.864590085900981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.961081198456661</v>
+        <v>0.896166639398233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.925339073741774</v>
+        <v>0.911351250035721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.893074037054505</v>
+        <v>0.848166229839107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.837058394612536</v>
+        <v>0.910481763184999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.968863611394569</v>
+        <v>0.984136205685761</v>
       </c>
       <c r="G4" t="n">
-        <v>0.987664944908553</v>
+        <v>0.92820712521606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.84521526057266</v>
+        <v>0.96563126267581</v>
       </c>
       <c r="I4" t="n">
-        <v>0.646014612995477</v>
+        <v>0.829439588434171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.936449508472677</v>
+        <v>0.891051234954016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.808083502504881</v>
+        <v>0.853697098889332</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.986711103064962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.878807639278622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.917634593535688</v>
+        <v>0.8850694003453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.895990718815425</v>
+        <v>0.912059398288718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.978768570129222</v>
+        <v>0.891605882783844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.828760505533314</v>
+        <v>0.924002044597885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.900508649159009</v>
+        <v>0.9649832584121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.98750342060006</v>
+        <v>0.916849072710622</v>
       </c>
       <c r="H5" t="n">
-        <v>0.960936429498363</v>
+        <v>0.89139795054932</v>
       </c>
       <c r="I5" t="n">
-        <v>0.835920532483089</v>
+        <v>0.875882853828117</v>
       </c>
       <c r="J5" t="n">
-        <v>0.920265069831952</v>
+        <v>0.836945764747576</v>
       </c>
       <c r="K5" t="n">
-        <v>0.917768040241635</v>
+        <v>0.842865740192205</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.958961583844549</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.858572442636635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.960843442781984</v>
+        <v>0.938990658301171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.907709157104128</v>
+        <v>0.96020586105559</v>
       </c>
       <c r="D6" t="n">
-        <v>0.976501720223574</v>
+        <v>0.950616516607484</v>
       </c>
       <c r="E6" t="n">
-        <v>0.801285825387084</v>
+        <v>0.969352039258061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.942526845527327</v>
+        <v>0.973184709286991</v>
       </c>
       <c r="G6" t="n">
-        <v>0.969164882533091</v>
+        <v>0.934619542621826</v>
       </c>
       <c r="H6" t="n">
-        <v>0.987572543837027</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.880078890676684</v>
+        <v>0.922604239920228</v>
       </c>
       <c r="J6" t="n">
-        <v>0.948084016263654</v>
+        <v>0.979925892017302</v>
       </c>
       <c r="K6" t="n">
-        <v>0.835168264183706</v>
+        <v>0.912990579266235</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.960017868400676</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.921602013335858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.906271264721132</v>
+        <v>0.961916673311395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.966529153321176</v>
+        <v>0.973203250023243</v>
       </c>
       <c r="D7" t="n">
-        <v>0.969894608427084</v>
+        <v>0.970880449689613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.915853731438831</v>
+        <v>0.980761253321827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.929479648475556</v>
+        <v>0.991810612601885</v>
       </c>
       <c r="G7" t="n">
-        <v>0.935452579776399</v>
+        <v>0.979129547376326</v>
       </c>
       <c r="H7" t="n">
-        <v>0.966598606472107</v>
+        <v>0.981697974158689</v>
       </c>
       <c r="I7" t="n">
-        <v>0.992160566916696</v>
+        <v>0.952771766944368</v>
       </c>
       <c r="J7" t="n">
-        <v>0.936246144704088</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.84165328655172</v>
+        <v>0.927570691639663</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.974769579955668</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.962164257774942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.903597357978442</v>
+        <v>0.887067413128365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.872967879332759</v>
+        <v>0.89961501559891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.958778261722943</v>
+        <v>0.938690771766182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.909660725647461</v>
+        <v>0.912086337943941</v>
       </c>
       <c r="F8" t="n">
-        <v>0.866380311557339</v>
+        <v>0.864785017760227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.969369750996766</v>
+        <v>0.94845335852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.96338762150664</v>
+        <v>0.813937267542875</v>
       </c>
       <c r="I8" t="n">
-        <v>0.976002089429194</v>
+        <v>0.9236279809544</v>
       </c>
       <c r="J8" t="n">
-        <v>0.908384102670175</v>
+        <v>0.840899223676734</v>
       </c>
       <c r="K8" t="n">
-        <v>0.866134553449636</v>
+        <v>0.848780406106236</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.989293432411146</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.881334946674037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.906393803167937</v>
+        <v>0.915181202314903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.980150269631008</v>
+        <v>0.931796118729327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.981426074806519</v>
+        <v>0.90853953216646</v>
       </c>
       <c r="E9" t="n">
-        <v>0.923751151350004</v>
+        <v>0.917103312152456</v>
       </c>
       <c r="F9" t="n">
-        <v>0.971065340151618</v>
+        <v>0.968630195875218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.93885890499541</v>
+        <v>0.92444116752585</v>
       </c>
       <c r="H9" t="n">
-        <v>0.988033201521084</v>
+        <v>0.926602220504306</v>
       </c>
       <c r="I9" t="n">
-        <v>0.917734299334098</v>
+        <v>0.940152107524352</v>
       </c>
       <c r="J9" t="n">
-        <v>0.964540194934968</v>
+        <v>0.87418762976888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.972823223828002</v>
+        <v>0.832407588114156</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.975267200428606</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.922095074877278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.89344397875683</v>
+        <v>0.91184453081002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.885476629879587</v>
+        <v>0.944321124710277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.927075185730931</v>
+        <v>0.973224418583991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.912494084865791</v>
+        <v>0.919367202116856</v>
       </c>
       <c r="F10" t="n">
-        <v>0.948982948535976</v>
+        <v>0.932964521400295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.965871587066616</v>
+        <v>0.923861933106821</v>
       </c>
       <c r="H10" t="n">
-        <v>0.879342598945703</v>
+        <v>0.983922559866242</v>
       </c>
       <c r="I10" t="n">
-        <v>0.931925560215443</v>
+        <v>0.948637155941013</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885498393674896</v>
+        <v>0.882633419430835</v>
       </c>
       <c r="K10" t="n">
-        <v>0.896003561864462</v>
+        <v>0.805787984357307</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.971201360064346</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.904844360148126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.888641096202881</v>
+        <v>0.930930565931639</v>
       </c>
       <c r="C11" t="n">
-        <v>0.892113706487357</v>
+        <v>0.954026705112954</v>
       </c>
       <c r="D11" t="n">
-        <v>0.977318817269447</v>
+        <v>0.919800073115032</v>
       </c>
       <c r="E11" t="n">
-        <v>0.783080258844413</v>
+        <v>0.986371318119374</v>
       </c>
       <c r="F11" t="n">
-        <v>0.916882566529653</v>
+        <v>0.973269373702157</v>
       </c>
       <c r="G11" t="n">
-        <v>0.985213759230302</v>
+        <v>0.962909971853615</v>
       </c>
       <c r="H11" t="n">
-        <v>0.928887127215644</v>
+        <v>0.956563555558567</v>
       </c>
       <c r="I11" t="n">
-        <v>0.587306428613404</v>
+        <v>0.929255174110184</v>
       </c>
       <c r="J11" t="n">
-        <v>0.81507351291549</v>
+        <v>0.987422539367308</v>
       </c>
       <c r="K11" t="n">
-        <v>0.803554614381469</v>
+        <v>0.914277168890335</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.948217536038893</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.910837720203125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.907460692971717</v>
+        <v>0.915982818215512</v>
       </c>
       <c r="C12" t="n">
-        <v>0.903889809294864</v>
+        <v>0.91382973019799</v>
       </c>
       <c r="D12" t="n">
-        <v>0.894346853603748</v>
+        <v>0.902719635188688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.843667290184157</v>
+        <v>0.890704393288998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.884769338104477</v>
+        <v>0.971166918076664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.960525487032748</v>
+        <v>0.898303018437106</v>
       </c>
       <c r="H12" t="n">
-        <v>0.961468423232594</v>
+        <v>0.939109556855205</v>
       </c>
       <c r="I12" t="n">
-        <v>0.899790770386185</v>
+        <v>0.875373577449085</v>
       </c>
       <c r="J12" t="n">
-        <v>0.886889617946456</v>
+        <v>0.932954046147327</v>
       </c>
       <c r="K12" t="n">
-        <v>0.794861607369954</v>
+        <v>0.9104859567392</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.975161170859769</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.914105152270398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.872074564713608</v>
+        <v>0.945131336448248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.880160454574409</v>
+        <v>0.958097363634588</v>
       </c>
       <c r="D13" t="n">
-        <v>0.963578880090825</v>
+        <v>0.906804722817799</v>
       </c>
       <c r="E13" t="n">
-        <v>0.862337106131045</v>
+        <v>0.964288011856864</v>
       </c>
       <c r="F13" t="n">
-        <v>0.915042653921643</v>
+        <v>0.975095997122587</v>
       </c>
       <c r="G13" t="n">
-        <v>0.983212292573018</v>
+        <v>0.964728407195034</v>
       </c>
       <c r="H13" t="n">
-        <v>0.969797438269258</v>
+        <v>0.983655326986826</v>
       </c>
       <c r="I13" t="n">
-        <v>0.920286057896182</v>
+        <v>0.956782141150416</v>
       </c>
       <c r="J13" t="n">
-        <v>0.795695654520004</v>
+        <v>0.97956724029364</v>
       </c>
       <c r="K13" t="n">
-        <v>0.881859286007646</v>
+        <v>0.922060180214271</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.937576141228179</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.942376139056544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.906804301639464</v>
+        <v>0.903021814377917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9468046218946</v>
+        <v>0.900843527253838</v>
       </c>
       <c r="D14" t="n">
-        <v>0.967952806643789</v>
+        <v>0.918948802677153</v>
       </c>
       <c r="E14" t="n">
-        <v>0.835983711619876</v>
+        <v>0.896202067670668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.872602742679419</v>
+        <v>0.92700581410632</v>
       </c>
       <c r="G14" t="n">
-        <v>0.951811795218071</v>
+        <v>0.943127171815001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.924420372603302</v>
+        <v>0.84987047179321</v>
       </c>
       <c r="I14" t="n">
-        <v>0.630407048102517</v>
+        <v>0.891400686786786</v>
       </c>
       <c r="J14" t="n">
-        <v>0.894129222943196</v>
+        <v>0.890522454074916</v>
       </c>
       <c r="K14" t="n">
-        <v>0.913515090650987</v>
+        <v>0.909616331444658</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.96665250498478</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.896365517393132</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_positive.xlsx
+++ b/xlsx/country_comparison/split_many_positive.xlsx
@@ -924,7 +924,7 @@
         <v>0.945131336448248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.958097363634588</v>
+        <v>0.958097363634589</v>
       </c>
       <c r="D13" t="n">
         <v>0.906804722817799</v>

--- a/xlsx/country_comparison/split_many_positive.xlsx
+++ b/xlsx/country_comparison/split_many_positive.xlsx
@@ -470,10 +470,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.86819559320201</v>
+        <v>0.868207762704881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9009114656142</v>
+        <v>0.900911465614199</v>
       </c>
       <c r="D2" t="n">
         <v>0.886361198970453</v>
@@ -497,13 +497,13 @@
         <v>0.888485251655774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.794353909933474</v>
+        <v>0.794347742737546</v>
       </c>
       <c r="L2" t="n">
         <v>0.985662647490559</v>
       </c>
       <c r="M2" t="n">
-        <v>0.854261619735472</v>
+        <v>0.854282793161759</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.887416728635225</v>
+        <v>0.887459267702903</v>
       </c>
       <c r="C3" t="n">
         <v>0.912390601327414</v>
@@ -538,13 +538,13 @@
         <v>0.832649399963089</v>
       </c>
       <c r="K3" t="n">
-        <v>0.845694943055003</v>
+        <v>0.845714552392868</v>
       </c>
       <c r="L3" t="n">
         <v>0.963896373943999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.864590085900981</v>
+        <v>0.864616508094897</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.896166639398233</v>
+        <v>0.896231684989246</v>
       </c>
       <c r="C4" t="n">
         <v>0.911351250035721</v>
@@ -579,13 +579,13 @@
         <v>0.891051234954016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.853697098889332</v>
+        <v>0.853858534412648</v>
       </c>
       <c r="L4" t="n">
         <v>0.986711103064962</v>
       </c>
       <c r="M4" t="n">
-        <v>0.878807639278622</v>
+        <v>0.878768046887914</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8850694003453</v>
+        <v>0.885132026693119</v>
       </c>
       <c r="C5" t="n">
         <v>0.912059398288718</v>
@@ -620,13 +620,13 @@
         <v>0.836945764747576</v>
       </c>
       <c r="K5" t="n">
-        <v>0.842865740192205</v>
+        <v>0.842980338337952</v>
       </c>
       <c r="L5" t="n">
         <v>0.958961583844549</v>
       </c>
       <c r="M5" t="n">
-        <v>0.858572442636635</v>
+        <v>0.858769060223575</v>
       </c>
     </row>
     <row r="6">
@@ -634,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.938990658301171</v>
+        <v>0.938925117918536</v>
       </c>
       <c r="C6" t="n">
         <v>0.96020586105559</v>
@@ -661,13 +661,13 @@
         <v>0.979925892017302</v>
       </c>
       <c r="K6" t="n">
-        <v>0.912990579266235</v>
+        <v>0.91306284013553</v>
       </c>
       <c r="L6" t="n">
         <v>0.960017868400676</v>
       </c>
       <c r="M6" t="n">
-        <v>0.921602013335858</v>
+        <v>0.921605565603906</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.961916673311395</v>
+        <v>0.961849682443643</v>
       </c>
       <c r="C7" t="n">
         <v>0.973203250023243</v>
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.927570691639663</v>
+        <v>0.927552761463621</v>
       </c>
       <c r="L7" t="n">
         <v>0.974769579955668</v>
       </c>
       <c r="M7" t="n">
-        <v>0.962164257774942</v>
+        <v>0.96201111210049</v>
       </c>
     </row>
     <row r="8">
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.887067413128365</v>
+        <v>0.886961397032235</v>
       </c>
       <c r="C8" t="n">
         <v>0.89961501559891</v>
@@ -743,13 +743,13 @@
         <v>0.840899223676734</v>
       </c>
       <c r="K8" t="n">
-        <v>0.848780406106236</v>
+        <v>0.848899310418636</v>
       </c>
       <c r="L8" t="n">
         <v>0.989293432411146</v>
       </c>
       <c r="M8" t="n">
-        <v>0.881334946674037</v>
+        <v>0.881077902880162</v>
       </c>
     </row>
     <row r="9">
@@ -757,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.915181202314903</v>
+        <v>0.915293777077691</v>
       </c>
       <c r="C9" t="n">
         <v>0.931796118729327</v>
@@ -784,13 +784,13 @@
         <v>0.87418762976888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.832407588114156</v>
+        <v>0.832530545230363</v>
       </c>
       <c r="L9" t="n">
         <v>0.975267200428606</v>
       </c>
       <c r="M9" t="n">
-        <v>0.922095074877278</v>
+        <v>0.922354929941407</v>
       </c>
     </row>
     <row r="10">
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.91184453081002</v>
+        <v>0.911878476682931</v>
       </c>
       <c r="C10" t="n">
         <v>0.944321124710277</v>
@@ -825,13 +825,13 @@
         <v>0.882633419430835</v>
       </c>
       <c r="K10" t="n">
-        <v>0.805787984357307</v>
+        <v>0.805792659101056</v>
       </c>
       <c r="L10" t="n">
         <v>0.971201360064346</v>
       </c>
       <c r="M10" t="n">
-        <v>0.904844360148126</v>
+        <v>0.904937243989624</v>
       </c>
     </row>
     <row r="11">
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.930930565931639</v>
+        <v>0.930807398111515</v>
       </c>
       <c r="C11" t="n">
         <v>0.954026705112954</v>
@@ -866,13 +866,13 @@
         <v>0.987422539367308</v>
       </c>
       <c r="K11" t="n">
-        <v>0.914277168890335</v>
+        <v>0.914186299621691</v>
       </c>
       <c r="L11" t="n">
         <v>0.948217536038893</v>
       </c>
       <c r="M11" t="n">
-        <v>0.910837720203125</v>
+        <v>0.910598544778767</v>
       </c>
     </row>
     <row r="12">
@@ -880,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.915982818215512</v>
+        <v>0.915974376981994</v>
       </c>
       <c r="C12" t="n">
         <v>0.91382973019799</v>
@@ -907,13 +907,13 @@
         <v>0.932954046147327</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9104859567392</v>
+        <v>0.910505112165096</v>
       </c>
       <c r="L12" t="n">
         <v>0.975161170859769</v>
       </c>
       <c r="M12" t="n">
-        <v>0.914105152270398</v>
+        <v>0.914130378664961</v>
       </c>
     </row>
     <row r="13">
@@ -921,7 +921,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.945131336448248</v>
+        <v>0.945038082771592</v>
       </c>
       <c r="C13" t="n">
         <v>0.958097363634589</v>
@@ -948,13 +948,13 @@
         <v>0.97956724029364</v>
       </c>
       <c r="K13" t="n">
-        <v>0.922060180214271</v>
+        <v>0.922118247433737</v>
       </c>
       <c r="L13" t="n">
         <v>0.937576141228179</v>
       </c>
       <c r="M13" t="n">
-        <v>0.942376139056544</v>
+        <v>0.942248868883493</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.903021814377917</v>
+        <v>0.903052127660099</v>
       </c>
       <c r="C14" t="n">
         <v>0.900843527253838</v>
@@ -989,13 +989,13 @@
         <v>0.890522454074916</v>
       </c>
       <c r="K14" t="n">
-        <v>0.909616331444658</v>
+        <v>0.909569327617522</v>
       </c>
       <c r="L14" t="n">
         <v>0.96665250498478</v>
       </c>
       <c r="M14" t="n">
-        <v>0.896365517393132</v>
+        <v>0.896539442344802</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_positive.xlsx
+++ b/xlsx/country_comparison/split_many_positive.xlsx
@@ -473,7 +473,7 @@
         <v>0.868207762704881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.900911465614199</v>
+        <v>0.9009114656142</v>
       </c>
       <c r="D2" t="n">
         <v>0.886361198970453</v>
@@ -634,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.938925117918536</v>
+        <v>0.938925117918537</v>
       </c>
       <c r="C6" t="n">
         <v>0.96020586105559</v>
@@ -880,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.915974376981994</v>
+        <v>0.915974376981995</v>
       </c>
       <c r="C12" t="n">
         <v>0.91382973019799</v>
@@ -965,7 +965,7 @@
         <v>0.903052127660099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.900843527253838</v>
+        <v>0.900843527253839</v>
       </c>
       <c r="D14" t="n">
         <v>0.918948802677153</v>
